--- a/biology/Médecine/Sémiologie_quantitative/Sémiologie_quantitative.xlsx
+++ b/biology/Médecine/Sémiologie_quantitative/Sémiologie_quantitative.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>S%C3%A9miologie_quantitative</t>
+          <t>Sémiologie_quantitative</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La sémiologie quantitative est une branche de la sémiologie médicale qui a pour but de quantifier la probabilité d'une hypothèse, par exemple la présence d'une maladie, en fonction de la présence ou l'absence de certains signes.
 On utilise en particulier les termes de sensibilité, de spécificité, de valeur prédictive positive, de valeur prédictive négative.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>S%C3%A9miologie_quantitative</t>
+          <t>Sémiologie_quantitative</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Table de contingence</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">On utilise également la table de contingence pour manipuler plus facilement les probabilité sur une population, ou un échantillon de la population :
 où a, b, c et d représentent un nombre de personnes dans l'échantillon.
